--- a/BDD/Validacion-BDD.xlsx
+++ b/BDD/Validacion-BDD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TeddyBear\Documents\GitHub\POS-ST\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo\Documents\GitHub\SoulTech\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="3195" tabRatio="984"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="3195" tabRatio="984" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DIRECCIONES" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>ID_CL</t>
   </si>
@@ -297,16 +297,123 @@
   </si>
   <si>
     <t>Tulipanes</t>
+  </si>
+  <si>
+    <t>Alamedas</t>
+  </si>
+  <si>
+    <t>Rio Tukancingo</t>
+  </si>
+  <si>
+    <t>San Nicolas</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>Bancefi</t>
+  </si>
+  <si>
+    <t>Banamex</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Pancho</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Duarte</t>
+  </si>
+  <si>
+    <t>4214aa</t>
+  </si>
+  <si>
+    <t>41242ad</t>
+  </si>
+  <si>
+    <t>12412as</t>
+  </si>
+  <si>
+    <t>1223124ada</t>
+  </si>
+  <si>
+    <t>2131424ada</t>
+  </si>
+  <si>
+    <t>2312412ada</t>
+  </si>
+  <si>
+    <t>martillo</t>
+  </si>
+  <si>
+    <t>sierra</t>
+  </si>
+  <si>
+    <t>palo</t>
+  </si>
+  <si>
+    <t>herramienta</t>
+  </si>
+  <si>
+    <t>truper</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>acme</t>
+  </si>
+  <si>
+    <t>trup@gmail.com</t>
+  </si>
+  <si>
+    <t>cat@gmail.com</t>
+  </si>
+  <si>
+    <t>Acm@gmail.com</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,15 +436,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,21 +795,56 @@
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="E3">
+        <v>233</v>
+      </c>
+      <c r="F3">
+        <v>43600</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>43700</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,10 +853,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +878,57 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -739,10 +936,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,6 +961,57 @@
         <v>51</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -771,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +1038,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +1100,48 @@
         <v>54</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -826,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +1173,48 @@
       </c>
       <c r="D1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>11241242</v>
+      </c>
+      <c r="D2">
+        <v>12312244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>21421414</v>
+      </c>
+      <c r="D3">
+        <v>244141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>241241241</v>
+      </c>
+      <c r="D4">
+        <v>24144341</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1438,93 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>23144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <v>24124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>2143</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1080,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,6 +1560,66 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43446</v>
+      </c>
+      <c r="E2">
+        <v>134</v>
+      </c>
+      <c r="F2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43447</v>
+      </c>
+      <c r="E3">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43448</v>
+      </c>
+      <c r="E4">
+        <v>212</v>
+      </c>
+      <c r="F4">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1656,57 @@
         <v>34</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1151,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,6 +1739,57 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>124442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>33421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>33112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,17 +1825,73 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12331</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>123312</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>123321</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,6 +1910,48 @@
         <v>46</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43446</v>
+      </c>
+      <c r="D2">
+        <v>12312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43447</v>
+      </c>
+      <c r="D3">
+        <v>13322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43448</v>
+      </c>
+      <c r="D4">
+        <v>12123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
